--- a/2/4/Base 2014=100 2014 a 2021 - Mensual.xlsx
+++ b/2/4/Base 2014=100 2014 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Serie</t>
   </si>
@@ -302,6 +302,12 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -659,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2485,6 +2491,46 @@
         <v>118.41</v>
       </c>
     </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92">
+        <v>157.55</v>
+      </c>
+      <c r="C92">
+        <v>130.73</v>
+      </c>
+      <c r="D92">
+        <v>183.15</v>
+      </c>
+      <c r="E92">
+        <v>136.65</v>
+      </c>
+      <c r="F92">
+        <v>118.16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93">
+        <v>161.84</v>
+      </c>
+      <c r="C93">
+        <v>133.3</v>
+      </c>
+      <c r="D93">
+        <v>189.23</v>
+      </c>
+      <c r="E93">
+        <v>138.97</v>
+      </c>
+      <c r="F93">
+        <v>118.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/4/Base 2014=100 2014 a 2021 - Mensual.xlsx
+++ b/2/4/Base 2014=100 2014 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Serie</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -665,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2531,6 +2534,26 @@
         <v>118.98</v>
       </c>
     </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94">
+        <v>161.53</v>
+      </c>
+      <c r="C94">
+        <v>134.52</v>
+      </c>
+      <c r="D94">
+        <v>187.64</v>
+      </c>
+      <c r="E94">
+        <v>138.98</v>
+      </c>
+      <c r="F94">
+        <v>117.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
